--- a/comparativo_ifrs17_rgaa_final.xlsx
+++ b/comparativo_ifrs17_rgaa_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DE2170-5102-4AD9-9F6E-4C79D40D8544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC6468E-E57C-414D-AB82-6E39FC05129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>RC daños a cosas_IFRS17</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>RC lesiones 3º no transportados</t>
+  </si>
+  <si>
+    <t>RC daños a cosas</t>
+  </si>
+  <si>
+    <t>RC lesiones 3º transportados</t>
+  </si>
+  <si>
+    <t>Concepto</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -203,25 +212,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,27 +535,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +563,7 @@
         <v>437.18859030923011</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,7 +571,7 @@
         <v>2310.1124457405222</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -570,7 +579,7 @@
         <v>174.05633333871731</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -578,7 +587,7 @@
         <v>378.14206980644542</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -586,44 +595,68 @@
         <v>1694.0183331241469</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>120.9689723465992</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>538.57073568454507</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3">
+        <v>538.57073568454507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1053.0508897497571</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1053.0508897497571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>67.752971946354407</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="8">
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3">
+        <v>67.752971946354407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="7">
         <v>0.1375521532639285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -640,23 +673,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f>B2</f>
         <v>437.18859030923011</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>B5-B16</f>
         <v>-59.046520502784688</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>D14*SUM(B16:C16)</f>
         <v>52.014255941555334</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f>SUM(B16:D16)</f>
         <v>430.15632574800077</v>
       </c>
@@ -665,73 +698,73 @@
         <v>-0.20130022437766737</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <f>B8</f>
         <v>538.57073568454507</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <f>SUM(B17:D17)</f>
         <v>538.57073568454507</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
         <v>5.5182695843936591E-2</v>
       </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <f>B3</f>
         <v>2310.1124457405222</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>B6-B21</f>
         <v>-616.09411261637524</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>D19*SUM(B21:C21)</f>
         <v>93.48049843084226</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f>SUM(B21:D21)</f>
         <v>1787.4988315549892</v>
       </c>
@@ -740,73 +773,73 @@
         <v>0.69744771972013964</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <f>B9</f>
         <v>1053.0508897497571</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>0</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="8">
         <f>SUM(B22:D22)</f>
         <v>1053.0508897497571</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
         <v>0.10749750235992635</v>
       </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>B4</f>
         <v>174.05633333871731</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <f>B7-B26</f>
         <v>-53.087360992118107</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f>D24*SUM(B26:C26)</f>
         <v>13.003862390306413</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f>SUM(B26:D26)</f>
         <v>133.97283473690561</v>
       </c>
@@ -815,26 +848,27 @@
         <v>0.97737207517602198</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <f>B10</f>
         <v>67.752971946354407</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="3">
         <v>0</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>0</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="8">
         <f>SUM(B27:D27)</f>
         <v>67.752971946354407</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>